--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tslp-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tslp-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H2">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I2">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J2">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.09512666666667</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N2">
-        <v>120.28538</v>
+        <v>88.916534</v>
       </c>
       <c r="O2">
-        <v>0.6247339948340943</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P2">
-        <v>0.6247339948340944</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q2">
-        <v>84.17538816298666</v>
+        <v>14.54155816458333</v>
       </c>
       <c r="R2">
-        <v>505.05232897792</v>
+        <v>87.2493489875</v>
       </c>
       <c r="S2">
-        <v>0.2353780402593444</v>
+        <v>0.05811902205237478</v>
       </c>
       <c r="T2">
-        <v>0.1896445146843234</v>
+        <v>0.04822196807633034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H3">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I3">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J3">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.07349133333333333</v>
+        <v>0.15178</v>
       </c>
       <c r="N3">
-        <v>0.220474</v>
+        <v>0.30356</v>
       </c>
       <c r="O3">
-        <v>0.001145090141271135</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P3">
-        <v>0.001145090141271135</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q3">
-        <v>0.1542871172693333</v>
+        <v>0.0744670625</v>
       </c>
       <c r="R3">
-        <v>0.9257227036159998</v>
+        <v>0.29786825</v>
       </c>
       <c r="S3">
-        <v>0.0004314301376288514</v>
+        <v>0.0002976264853208104</v>
       </c>
       <c r="T3">
-        <v>0.0003476040457328357</v>
+        <v>0.000164629231153464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H4">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I4">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J4">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.0109</v>
+        <v>9.907502666666666</v>
       </c>
       <c r="N4">
-        <v>72.03270000000001</v>
+        <v>29.722508</v>
       </c>
       <c r="O4">
-        <v>0.3741209150246345</v>
+        <v>0.09964172703215479</v>
       </c>
       <c r="P4">
-        <v>0.3741209150246346</v>
+        <v>0.09969245326671611</v>
       </c>
       <c r="Q4">
-        <v>50.40829137280001</v>
+        <v>4.860868495833333</v>
       </c>
       <c r="R4">
-        <v>302.4497482368</v>
+        <v>29.165210975</v>
       </c>
       <c r="S4">
-        <v>0.1409557484092354</v>
+        <v>0.01942769269328341</v>
       </c>
       <c r="T4">
-        <v>0.1135683025892379</v>
+        <v>0.0161193623665591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.8500033333333333</v>
+        <v>0.490625</v>
       </c>
       <c r="H5">
-        <v>2.55001</v>
+        <v>0.98125</v>
       </c>
       <c r="I5">
-        <v>0.1525449710532097</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J5">
-        <v>0.1843586404941081</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.09512666666667</v>
+        <v>59.73313466666667</v>
       </c>
       <c r="N5">
-        <v>120.28538</v>
+        <v>179.199404</v>
       </c>
       <c r="O5">
-        <v>0.6247339948340943</v>
+        <v>0.600748028991794</v>
       </c>
       <c r="P5">
-        <v>0.6247339948340944</v>
+        <v>0.6010538615615272</v>
       </c>
       <c r="Q5">
-        <v>34.08099131708889</v>
+        <v>29.30656919583333</v>
       </c>
       <c r="R5">
-        <v>306.7289218537999</v>
+        <v>175.839415175</v>
       </c>
       <c r="S5">
-        <v>0.09530002915792299</v>
+        <v>0.1171311301095972</v>
       </c>
       <c r="T5">
-        <v>0.1151751099580668</v>
+        <v>0.09718493906864864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>2.55001</v>
       </c>
       <c r="I6">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J6">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.07349133333333333</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N6">
-        <v>0.220474</v>
+        <v>88.916534</v>
       </c>
       <c r="O6">
-        <v>0.001145090141271135</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P6">
-        <v>0.001145090141271135</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q6">
-        <v>0.06246787830444444</v>
+        <v>25.19311676281556</v>
       </c>
       <c r="R6">
-        <v>0.5622109047399999</v>
+        <v>226.73805086534</v>
       </c>
       <c r="S6">
-        <v>0.0001746777424535211</v>
+        <v>0.1006906751074488</v>
       </c>
       <c r="T6">
-        <v>0.0002111072616879526</v>
+        <v>0.1253161791738325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>2.55001</v>
       </c>
       <c r="I7">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J7">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>24.0109</v>
+        <v>0.15178</v>
       </c>
       <c r="N7">
-        <v>72.03270000000001</v>
+        <v>0.30356</v>
       </c>
       <c r="O7">
-        <v>0.3741209150246345</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P7">
-        <v>0.3741209150246346</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q7">
-        <v>20.40934503633333</v>
+        <v>0.1290135059333333</v>
       </c>
       <c r="R7">
-        <v>183.684105327</v>
+        <v>0.7740810356</v>
       </c>
       <c r="S7">
-        <v>0.05707026415283321</v>
+        <v>0.0005156351686338307</v>
       </c>
       <c r="T7">
-        <v>0.06897242327435338</v>
+        <v>0.0004278279599833322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3447446666666667</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H8">
-        <v>1.034234</v>
+        <v>2.55001</v>
       </c>
       <c r="I8">
-        <v>0.06186924584305368</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J8">
-        <v>0.07477224567463792</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.09512666666667</v>
+        <v>9.907502666666666</v>
       </c>
       <c r="N8">
-        <v>120.28538</v>
+        <v>29.722508</v>
       </c>
       <c r="O8">
-        <v>0.6247339948340943</v>
+        <v>0.09964172703215479</v>
       </c>
       <c r="P8">
-        <v>0.6247339948340944</v>
+        <v>0.09969245326671611</v>
       </c>
       <c r="Q8">
-        <v>13.82258107765778</v>
+        <v>8.421410291675555</v>
       </c>
       <c r="R8">
-        <v>124.40322969892</v>
+        <v>75.79269262507999</v>
       </c>
       <c r="S8">
-        <v>0.03865182111290361</v>
+        <v>0.0336583002257662</v>
       </c>
       <c r="T8">
-        <v>0.04671276374303288</v>
+        <v>0.04188997220723504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3447446666666667</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H9">
-        <v>1.034234</v>
+        <v>2.55001</v>
       </c>
       <c r="I9">
-        <v>0.06186924584305368</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J9">
-        <v>0.07477224567463792</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07349133333333333</v>
+        <v>59.73313466666667</v>
       </c>
       <c r="N9">
-        <v>0.220474</v>
+        <v>179.199404</v>
       </c>
       <c r="O9">
-        <v>0.001145090141271135</v>
+        <v>0.600748028991794</v>
       </c>
       <c r="P9">
-        <v>0.001145090141271135</v>
+        <v>0.6010538615615272</v>
       </c>
       <c r="Q9">
-        <v>0.02533574521288889</v>
+        <v>50.77336357711556</v>
       </c>
       <c r="R9">
-        <v>0.228021706916</v>
+        <v>456.96027219404</v>
       </c>
       <c r="S9">
-        <v>7.084586346276089E-05</v>
+        <v>0.2029286135648569</v>
       </c>
       <c r="T9">
-        <v>8.562096136273112E-05</v>
+        <v>0.2525580295280965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3447446666666667</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H10">
-        <v>1.034234</v>
+        <v>0.126835</v>
       </c>
       <c r="I10">
-        <v>0.06186924584305368</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J10">
-        <v>0.07477224567463792</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,95 +1057,95 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.0109</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N10">
-        <v>72.03270000000001</v>
+        <v>88.916534</v>
       </c>
       <c r="O10">
-        <v>0.3741209150246345</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P10">
-        <v>0.3741209150246346</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q10">
-        <v>8.277629716866668</v>
+        <v>1.253080954432222</v>
       </c>
       <c r="R10">
-        <v>74.49866745180002</v>
+        <v>11.27772858989</v>
       </c>
       <c r="S10">
-        <v>0.02314657886668731</v>
+        <v>0.005008255566548081</v>
       </c>
       <c r="T10">
-        <v>0.02797386097024231</v>
+        <v>0.006233104021361895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.7852654999999999</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H11">
-        <v>1.570531</v>
+        <v>0.126835</v>
       </c>
       <c r="I11">
-        <v>0.1409268626004418</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J11">
-        <v>0.1135450292406116</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>40.09512666666667</v>
+        <v>0.15178</v>
       </c>
       <c r="N11">
-        <v>120.28538</v>
+        <v>0.30356</v>
       </c>
       <c r="O11">
-        <v>0.6247339948340943</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P11">
-        <v>0.6247339948340944</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q11">
-        <v>31.48531968946333</v>
+        <v>0.006417005433333334</v>
       </c>
       <c r="R11">
-        <v>188.91191813678</v>
+        <v>0.0385020326</v>
       </c>
       <c r="S11">
-        <v>0.08804180185180956</v>
+        <v>2.564718829089765E-05</v>
       </c>
       <c r="T11">
-        <v>0.07093543971104138</v>
+        <v>2.127974372825437E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7852654999999999</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H12">
-        <v>1.570531</v>
+        <v>0.126835</v>
       </c>
       <c r="I12">
-        <v>0.1409268626004418</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J12">
-        <v>0.1135450292406116</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07349133333333333</v>
+        <v>9.907502666666666</v>
       </c>
       <c r="N12">
-        <v>0.220474</v>
+        <v>29.722508</v>
       </c>
       <c r="O12">
-        <v>0.001145090141271135</v>
+        <v>0.09964172703215479</v>
       </c>
       <c r="P12">
-        <v>0.001145090141271135</v>
+        <v>0.09969245326671611</v>
       </c>
       <c r="Q12">
-        <v>0.05771020861566666</v>
+        <v>0.4188727002422222</v>
       </c>
       <c r="R12">
-        <v>0.346261251694</v>
+        <v>3.76985430218</v>
       </c>
       <c r="S12">
-        <v>0.0001613739610040377</v>
+        <v>0.001674130889343593</v>
       </c>
       <c r="T12">
-        <v>0.0001300192935737671</v>
+        <v>0.002083566191859897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.7852654999999999</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H13">
-        <v>1.570531</v>
+        <v>0.126835</v>
       </c>
       <c r="I13">
-        <v>0.1409268626004418</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J13">
-        <v>0.1135450292406116</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.0109</v>
+        <v>59.73313466666667</v>
       </c>
       <c r="N13">
-        <v>72.03270000000001</v>
+        <v>179.199404</v>
       </c>
       <c r="O13">
-        <v>0.3741209150246345</v>
+        <v>0.600748028991794</v>
       </c>
       <c r="P13">
-        <v>0.3741209150246346</v>
+        <v>0.6010538615615272</v>
       </c>
       <c r="Q13">
-        <v>18.85493139395</v>
+        <v>2.525417378482222</v>
       </c>
       <c r="R13">
-        <v>113.1295883637</v>
+        <v>22.72875640634</v>
       </c>
       <c r="S13">
-        <v>0.05272368678762825</v>
+        <v>0.01009347049678183</v>
       </c>
       <c r="T13">
-        <v>0.04247957023599652</v>
+        <v>0.01256198904129636</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8341876666666668</v>
+        <v>0.9897235</v>
       </c>
       <c r="H14">
-        <v>2.502563</v>
+        <v>1.979447</v>
       </c>
       <c r="I14">
-        <v>0.1497066287559005</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J14">
-        <v>0.1809283541754176</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.09512666666667</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N14">
-        <v>120.28538</v>
+        <v>88.916534</v>
       </c>
       <c r="O14">
-        <v>0.6247339948340943</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P14">
-        <v>0.6247339948340944</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q14">
-        <v>33.44686015877112</v>
+        <v>29.33426107944967</v>
       </c>
       <c r="R14">
-        <v>301.02174142894</v>
+        <v>176.005566476698</v>
       </c>
       <c r="S14">
-        <v>0.09352682023581839</v>
+        <v>0.1172418077396251</v>
       </c>
       <c r="T14">
-        <v>0.1130320934827666</v>
+        <v>0.09727676947035707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,87 +1340,87 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8341876666666668</v>
+        <v>0.9897235</v>
       </c>
       <c r="H15">
-        <v>2.502563</v>
+        <v>1.979447</v>
       </c>
       <c r="I15">
-        <v>0.1497066287559005</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J15">
-        <v>0.1809283541754176</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.07349133333333333</v>
+        <v>0.15178</v>
       </c>
       <c r="N15">
-        <v>0.220474</v>
+        <v>0.30356</v>
       </c>
       <c r="O15">
-        <v>0.001145090141271135</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P15">
-        <v>0.001145090141271135</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q15">
-        <v>0.06130556387355555</v>
+        <v>0.15022023283</v>
       </c>
       <c r="R15">
-        <v>0.551750074862</v>
+        <v>0.60088093132</v>
       </c>
       <c r="S15">
-        <v>0.0001714275846713194</v>
+        <v>0.0006003932264854239</v>
       </c>
       <c r="T15">
-        <v>0.0002071792746426829</v>
+        <v>0.0003321017454461461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8341876666666668</v>
+        <v>0.9897235</v>
       </c>
       <c r="H16">
-        <v>2.502563</v>
+        <v>1.979447</v>
       </c>
       <c r="I16">
-        <v>0.1497066287559005</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J16">
-        <v>0.1809283541754176</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,60 +1429,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.0109</v>
+        <v>9.907502666666666</v>
       </c>
       <c r="N16">
-        <v>72.03270000000001</v>
+        <v>29.722508</v>
       </c>
       <c r="O16">
-        <v>0.3741209150246345</v>
+        <v>0.09964172703215479</v>
       </c>
       <c r="P16">
-        <v>0.3741209150246346</v>
+        <v>0.09969245326671611</v>
       </c>
       <c r="Q16">
-        <v>20.02959664556667</v>
+        <v>9.805688215512665</v>
       </c>
       <c r="R16">
-        <v>180.2663698101</v>
+        <v>58.834129293076</v>
       </c>
       <c r="S16">
-        <v>0.05600838093541075</v>
+        <v>0.03919091772600435</v>
       </c>
       <c r="T16">
-        <v>0.0676890814180084</v>
+        <v>0.03251711946843141</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6585559999999999</v>
+        <v>0.9897235</v>
       </c>
       <c r="H17">
-        <v>1.975668</v>
+        <v>1.979447</v>
       </c>
       <c r="I17">
-        <v>0.1181870729411856</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J17">
-        <v>0.1428353090959304</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.09512666666667</v>
+        <v>59.73313466666667</v>
       </c>
       <c r="N17">
-        <v>120.28538</v>
+        <v>179.199404</v>
       </c>
       <c r="O17">
-        <v>0.6247339948340943</v>
+        <v>0.600748028991794</v>
       </c>
       <c r="P17">
-        <v>0.6247339948340944</v>
+        <v>0.6010538615615272</v>
       </c>
       <c r="Q17">
-        <v>26.40488623709333</v>
+        <v>59.11928710826467</v>
       </c>
       <c r="R17">
-        <v>237.6439761338399</v>
+        <v>354.715722649588</v>
       </c>
       <c r="S17">
-        <v>0.07383548221629538</v>
+        <v>0.236285211823747</v>
       </c>
       <c r="T17">
-        <v>0.08923407325486328</v>
+        <v>0.1960483425066185</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.6585559999999999</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H18">
-        <v>1.975668</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I18">
-        <v>0.1181870729411856</v>
+        <v>0.008338956023005085</v>
       </c>
       <c r="J18">
-        <v>0.1428353090959304</v>
+        <v>0.01037309938012859</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.07349133333333333</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N18">
-        <v>0.220474</v>
+        <v>88.916534</v>
       </c>
       <c r="O18">
-        <v>0.001145090141271135</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P18">
-        <v>0.001145090141271135</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q18">
-        <v>0.04839815851466665</v>
+        <v>0.6219316368704444</v>
       </c>
       <c r="R18">
-        <v>0.4355834266319999</v>
+        <v>5.597384731834</v>
       </c>
       <c r="S18">
-        <v>0.0001353348520506441</v>
+        <v>0.002485707384947122</v>
       </c>
       <c r="T18">
-        <v>0.0001635593042711651</v>
+        <v>0.003093626611335614</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02098366666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.06295099999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.008338956023005085</v>
+      </c>
+      <c r="J19">
+        <v>0.01037309938012859</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.15178</v>
+      </c>
+      <c r="N19">
+        <v>0.30356</v>
+      </c>
+      <c r="O19">
+        <v>0.001526481681385076</v>
+      </c>
+      <c r="P19">
+        <v>0.00101817252816096</v>
+      </c>
+      <c r="Q19">
+        <v>0.003184900926666666</v>
+      </c>
+      <c r="R19">
+        <v>0.01910940556</v>
+      </c>
+      <c r="S19">
+        <v>1.272926361099301E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.056160482073041E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02098366666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.06295099999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.008338956023005085</v>
+      </c>
+      <c r="J20">
+        <v>0.01037309938012859</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.907502666666666</v>
+      </c>
+      <c r="N20">
+        <v>29.722508</v>
+      </c>
+      <c r="O20">
+        <v>0.09964172703215479</v>
+      </c>
+      <c r="P20">
+        <v>0.09969245326671611</v>
+      </c>
+      <c r="Q20">
+        <v>0.2078957334564444</v>
+      </c>
+      <c r="R20">
+        <v>1.871061601108</v>
+      </c>
+      <c r="S20">
+        <v>0.0008309079797774159</v>
+      </c>
+      <c r="T20">
+        <v>0.001034119725184471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02098366666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.06295099999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.008338956023005085</v>
+      </c>
+      <c r="J21">
+        <v>0.01037309938012859</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73313466666667</v>
+      </c>
+      <c r="N21">
+        <v>179.199404</v>
+      </c>
+      <c r="O21">
+        <v>0.600748028991794</v>
+      </c>
+      <c r="P21">
+        <v>0.6010538615615272</v>
+      </c>
+      <c r="Q21">
+        <v>1.253420186800444</v>
+      </c>
+      <c r="R21">
+        <v>11.280781681204</v>
+      </c>
+      <c r="S21">
+        <v>0.005009611394669555</v>
+      </c>
+      <c r="T21">
+        <v>0.006234791438787771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.6585559999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.975668</v>
-      </c>
-      <c r="I19">
-        <v>0.1181870729411856</v>
-      </c>
-      <c r="J19">
-        <v>0.1428353090959304</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>24.0109</v>
-      </c>
-      <c r="N19">
-        <v>72.03270000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.3741209150246345</v>
-      </c>
-      <c r="P19">
-        <v>0.3741209150246346</v>
-      </c>
-      <c r="Q19">
-        <v>15.8125222604</v>
-      </c>
-      <c r="R19">
-        <v>142.3127003436</v>
-      </c>
-      <c r="S19">
-        <v>0.04421625587283958</v>
-      </c>
-      <c r="T19">
-        <v>0.053437676536796</v>
+      <c r="G22">
+        <v>0.1227283333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.368185</v>
+      </c>
+      <c r="I22">
+        <v>0.04877251391288665</v>
+      </c>
+      <c r="J22">
+        <v>0.06066972081893288</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>29.63884466666667</v>
+      </c>
+      <c r="N22">
+        <v>88.916534</v>
+      </c>
+      <c r="O22">
+        <v>0.2980837622946661</v>
+      </c>
+      <c r="P22">
+        <v>0.2982355126435957</v>
+      </c>
+      <c r="Q22">
+        <v>3.637526007865556</v>
+      </c>
+      <c r="R22">
+        <v>32.73773407079</v>
+      </c>
+      <c r="S22">
+        <v>0.0145382944437222</v>
+      </c>
+      <c r="T22">
+        <v>0.01809386529037828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1227283333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.368185</v>
+      </c>
+      <c r="I23">
+        <v>0.04877251391288665</v>
+      </c>
+      <c r="J23">
+        <v>0.06066972081893288</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.15178</v>
+      </c>
+      <c r="N23">
+        <v>0.30356</v>
+      </c>
+      <c r="O23">
+        <v>0.001526481681385076</v>
+      </c>
+      <c r="P23">
+        <v>0.00101817252816096</v>
+      </c>
+      <c r="Q23">
+        <v>0.01862770643333333</v>
+      </c>
+      <c r="R23">
+        <v>0.1117662386</v>
+      </c>
+      <c r="S23">
+        <v>7.445034904312022E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.177224302903249E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1227283333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.368185</v>
+      </c>
+      <c r="I24">
+        <v>0.04877251391288665</v>
+      </c>
+      <c r="J24">
+        <v>0.06066972081893288</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.907502666666666</v>
+      </c>
+      <c r="N24">
+        <v>29.722508</v>
+      </c>
+      <c r="O24">
+        <v>0.09964172703215479</v>
+      </c>
+      <c r="P24">
+        <v>0.09969245326671611</v>
+      </c>
+      <c r="Q24">
+        <v>1.215931289775555</v>
+      </c>
+      <c r="R24">
+        <v>10.94338160798</v>
+      </c>
+      <c r="S24">
+        <v>0.004859777517979824</v>
+      </c>
+      <c r="T24">
+        <v>0.00604831330744618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1227283333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.368185</v>
+      </c>
+      <c r="I25">
+        <v>0.04877251391288665</v>
+      </c>
+      <c r="J25">
+        <v>0.06066972081893288</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>59.73313466666667</v>
+      </c>
+      <c r="N25">
+        <v>179.199404</v>
+      </c>
+      <c r="O25">
+        <v>0.600748028991794</v>
+      </c>
+      <c r="P25">
+        <v>0.6010538615615272</v>
+      </c>
+      <c r="Q25">
+        <v>7.330948062415556</v>
+      </c>
+      <c r="R25">
+        <v>65.97853256174</v>
+      </c>
+      <c r="S25">
+        <v>0.02929999160214151</v>
+      </c>
+      <c r="T25">
+        <v>0.03646576997807939</v>
       </c>
     </row>
   </sheetData>
